--- a/IT002-OOP/it002m22/it002m222.xlsx
+++ b/IT002-OOP/it002m22/it002m222.xlsx
@@ -541,7 +541,9 @@
       <c r="D6" t="n">
         <v>500</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>300</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -556,7 +558,9 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>700</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -590,7 +594,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>350</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -609,7 +615,9 @@
       <c r="D10" t="n">
         <v>657.14</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>800</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -628,7 +636,9 @@
       <c r="D11" t="n">
         <v>800</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>800</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -647,7 +657,9 @@
       <c r="D12" t="n">
         <v>528.5700000000001</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>800</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -666,7 +678,9 @@
       <c r="D13" t="n">
         <v>600</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>800</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -685,7 +699,9 @@
       <c r="D14" t="n">
         <v>800</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>800</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -738,7 +754,9 @@
       <c r="D17" t="n">
         <v>800</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>800</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -757,7 +775,9 @@
       <c r="D18" t="n">
         <v>800</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>583.33</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -776,7 +796,9 @@
       <c r="D19" t="n">
         <v>650</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>600</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -810,7 +832,9 @@
       <c r="D21" t="n">
         <v>800</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>750</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -829,7 +853,9 @@
       <c r="D22" t="n">
         <v>500</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>200</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -848,7 +874,9 @@
       <c r="D23" t="n">
         <v>800</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>750</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -867,7 +895,9 @@
       <c r="D24" t="n">
         <v>500</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>600</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
@@ -886,7 +916,9 @@
       <c r="D25" t="n">
         <v>457.14</v>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>400</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
     </row>
@@ -903,7 +935,9 @@
       <c r="D26" t="n">
         <v>800</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>800</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -922,7 +956,9 @@
       <c r="D27" t="n">
         <v>800</v>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>800</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -941,7 +977,9 @@
       <c r="D28" t="n">
         <v>800</v>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>800</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
     </row>
@@ -960,7 +998,9 @@
       <c r="D29" t="n">
         <v>500</v>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>300</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
     </row>
@@ -979,7 +1019,9 @@
       <c r="D30" t="n">
         <v>250</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>800</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
     </row>
@@ -998,7 +1040,9 @@
       <c r="D31" t="n">
         <v>350</v>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>66.67</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
@@ -1017,7 +1061,9 @@
       <c r="D32" t="n">
         <v>800</v>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>800</v>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
     </row>
@@ -1036,7 +1082,9 @@
       <c r="D33" t="n">
         <v>507.14</v>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>600</v>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
@@ -1055,7 +1103,9 @@
       <c r="D34" t="n">
         <v>400</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>800</v>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
     </row>
@@ -1074,7 +1124,9 @@
       <c r="D35" t="n">
         <v>800</v>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>800</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
     </row>
@@ -1093,7 +1145,9 @@
       <c r="D36" t="n">
         <v>800</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>700</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
     </row>
@@ -1112,7 +1166,9 @@
       <c r="D37" t="n">
         <v>800</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>800</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
     </row>
@@ -1131,7 +1187,9 @@
       <c r="D38" t="n">
         <v>800</v>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>800</v>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
     </row>
@@ -1150,7 +1208,9 @@
       <c r="D39" t="n">
         <v>800</v>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>800</v>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
     </row>
@@ -1169,7 +1229,9 @@
       <c r="D40" t="n">
         <v>800</v>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>600</v>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
     </row>
@@ -1186,7 +1248,9 @@
         <v>540</v>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>116.67</v>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
     </row>
@@ -1205,7 +1269,9 @@
       <c r="D42" t="n">
         <v>50</v>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>500</v>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
     </row>
@@ -1224,7 +1290,9 @@
       <c r="D43" t="n">
         <v>50</v>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>600</v>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
     </row>
@@ -1243,7 +1311,9 @@
       <c r="D44" t="n">
         <v>150</v>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>300</v>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
     </row>
@@ -1262,7 +1332,9 @@
       <c r="D45" t="n">
         <v>150</v>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>350</v>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
     </row>
@@ -1281,7 +1353,9 @@
       <c r="D46" t="n">
         <v>700</v>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>300</v>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
     </row>
@@ -1298,7 +1372,9 @@
         <v>100</v>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
     </row>
@@ -1317,7 +1393,9 @@
       <c r="D48" t="n">
         <v>800</v>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>800</v>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
     </row>
@@ -1336,7 +1414,9 @@
       <c r="D49" t="n">
         <v>714.29</v>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>750</v>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
     </row>
@@ -1355,7 +1435,9 @@
       <c r="D50" t="n">
         <v>800</v>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>600</v>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
     </row>
@@ -1374,7 +1456,9 @@
       <c r="D51" t="n">
         <v>475</v>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>600</v>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
     </row>

--- a/IT002-OOP/it002m22/it002m222.xlsx
+++ b/IT002-OOP/it002m22/it002m222.xlsx
@@ -508,7 +508,9 @@
         <v>400</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>700</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -544,7 +546,9 @@
       <c r="E6" t="n">
         <v>300</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>200</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -597,7 +601,9 @@
       <c r="E9" t="n">
         <v>350</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>300</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -618,7 +624,9 @@
       <c r="E10" t="n">
         <v>800</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>500</v>
+      </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -639,7 +647,9 @@
       <c r="E11" t="n">
         <v>800</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>800</v>
+      </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -660,7 +670,9 @@
       <c r="E12" t="n">
         <v>800</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>500</v>
+      </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -681,7 +693,9 @@
       <c r="E13" t="n">
         <v>800</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>500</v>
+      </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -702,7 +716,9 @@
       <c r="E14" t="n">
         <v>800</v>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>800</v>
+      </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -757,7 +773,9 @@
       <c r="E17" t="n">
         <v>800</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>800</v>
+      </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -778,7 +796,9 @@
       <c r="E18" t="n">
         <v>583.33</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -799,7 +819,9 @@
       <c r="E19" t="n">
         <v>600</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>800</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -835,7 +857,9 @@
       <c r="E21" t="n">
         <v>750</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>800</v>
+      </c>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -877,7 +901,9 @@
       <c r="E23" t="n">
         <v>750</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>800</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -898,7 +924,9 @@
       <c r="E24" t="n">
         <v>600</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -919,7 +947,9 @@
       <c r="E25" t="n">
         <v>400</v>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -938,7 +968,9 @@
       <c r="E26" t="n">
         <v>800</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>750</v>
+      </c>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -959,7 +991,9 @@
       <c r="E27" t="n">
         <v>800</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>500</v>
+      </c>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -980,7 +1014,9 @@
       <c r="E28" t="n">
         <v>800</v>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>800</v>
+      </c>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1022,7 +1058,9 @@
       <c r="E30" t="n">
         <v>800</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>800</v>
+      </c>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1064,7 +1102,9 @@
       <c r="E32" t="n">
         <v>800</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>800</v>
+      </c>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1085,7 +1125,9 @@
       <c r="E33" t="n">
         <v>600</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>800</v>
+      </c>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1106,7 +1148,9 @@
       <c r="E34" t="n">
         <v>800</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>800</v>
+      </c>
       <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1127,7 +1171,9 @@
       <c r="E35" t="n">
         <v>800</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>800</v>
+      </c>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1148,7 +1194,9 @@
       <c r="E36" t="n">
         <v>700</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>750</v>
+      </c>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1169,7 +1217,9 @@
       <c r="E37" t="n">
         <v>800</v>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>500</v>
+      </c>
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1190,7 +1240,9 @@
       <c r="E38" t="n">
         <v>800</v>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>800</v>
+      </c>
       <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1211,7 +1263,9 @@
       <c r="E39" t="n">
         <v>800</v>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>800</v>
+      </c>
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1232,7 +1286,9 @@
       <c r="E40" t="n">
         <v>600</v>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>300</v>
+      </c>
       <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1272,7 +1328,9 @@
       <c r="E42" t="n">
         <v>500</v>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>750</v>
+      </c>
       <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1293,7 +1351,9 @@
       <c r="E43" t="n">
         <v>600</v>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>450</v>
+      </c>
       <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1314,7 +1374,9 @@
       <c r="E44" t="n">
         <v>300</v>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>600</v>
+      </c>
       <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1335,7 +1397,9 @@
       <c r="E45" t="n">
         <v>350</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>450</v>
+      </c>
       <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1356,7 +1420,9 @@
       <c r="E46" t="n">
         <v>300</v>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>600</v>
+      </c>
       <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1375,7 +1441,9 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
       <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1396,7 +1464,9 @@
       <c r="E48" t="n">
         <v>800</v>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>800</v>
+      </c>
       <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1417,7 +1487,9 @@
       <c r="E49" t="n">
         <v>750</v>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>200</v>
+      </c>
       <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1438,7 +1510,9 @@
       <c r="E50" t="n">
         <v>600</v>
       </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>500</v>
+      </c>
       <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1459,7 +1533,9 @@
       <c r="E51" t="n">
         <v>600</v>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>200</v>
+      </c>
       <c r="G51" t="inlineStr"/>
     </row>
   </sheetData>
